--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipedussan/Desktop/Estructura de Datos/S8/LabCollision-S08-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89F847F-C127-374A-8BF3-E32837EE3E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -66,12 +66,21 @@
   <si>
     <t>Consumo de Datos [kB]</t>
   </si>
+  <si>
+    <t>MAQUINA 1</t>
+  </si>
+  <si>
+    <t>MAQUINA 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +105,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +135,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,11 +163,179 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -281,6 +481,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -334,6 +584,56 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -426,6 +726,2726 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Consumo de Datos [kB] Probing Maq1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo de Datos [kB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1707549.0519999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1707549.0519999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1707549.0519999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEAC-194F-B57A-9E60684DE81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121293503"/>
+        <c:axId val="121575183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121293503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121575183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121575183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121293503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de Ejecución [ms] Probing Maq1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de Ejecución [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33643.796999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33643.796999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33451.574999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B24B-4D4F-ACDD-E704144D6F5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64807727"/>
+        <c:axId val="64809375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64807727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64809375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64809375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64807727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Consumo de Datos [kB] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chaining Maq1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo de Datos [kB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$11:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$11:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1707557.1610000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1707552.325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1707552.325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4689-FD4C-9BD6-C011E9837474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="139979343"/>
+        <c:axId val="139717183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="139979343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139717183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="139717183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139979343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de Ejecución [ms] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chaining Maq1  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de Ejecución [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$11:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33953.046999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34021.879000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34317.108999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5D7-4945-BD2F-7816A7B68FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121577807"/>
+        <c:axId val="121292159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121577807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121292159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121292159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121577807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Consumo de Datos [kB] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Probing Maq2  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo de Datos [kB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1713347.3489999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1713347.3489999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1713347.3489999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0AC-B140-942C-80497EB5DEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1802999264"/>
+        <c:axId val="125109695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1802999264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125109695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125109695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1802999264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de Ejecución [ms] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Probing Maq2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de Ejecución [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33624.112000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29986.787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30116.117999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44FA-CC42-99CE-0BD1A0AB10E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137172751"/>
+        <c:axId val="1817180288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137172751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817180288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1817180288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137172751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Consumo de Datos [kB] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chaining Maq2   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo de Datos [kB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$25:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$25:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1713354.6610000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1713354.5209999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1713354.6610000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CB4-D847-9B7E-71DCD85B2672}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144312447"/>
+        <c:axId val="144220703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144312447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144220703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144220703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144312447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de Ejecución [ms]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>] Chaining Maq2     </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de Ejecución [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$25:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29763.585999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30717.005000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27878.010999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6868-A949-BA0A-A7C9D6F6DC76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1835889568"/>
+        <c:axId val="1830185120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1835889568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830185120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830185120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835889568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -481,7 +3501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -496,7 +3516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$A$9:$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -568,43 +3588,43 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
+              <c:f>'Datos Lab7'!$B$4:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1707549.0519999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>1707549.0519999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>1707549.0519999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
+              <c:f>'Datos Lab7'!$C$4:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>33643.796999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>33643.796999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>33451.574999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +3641,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$A$9:$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,43 +3714,43 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
+              <c:f>'Datos Lab7'!$B$11:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1707557.1610000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>1707552.325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>1707552.325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
+              <c:f>'Datos Lab7'!$C$11:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>33953.046999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>34021.879000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>34317.108999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,11 +3855,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +3893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -957,11 +3977,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -995,7 +4015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1037,7 +4057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,13 +4094,333 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1633,6 +4973,4134 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
@@ -1645,6 +9113,299 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575735</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072C1C71-9423-7442-82A5-8ACFFD9B58C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CA7644-C53F-D347-AB07-7C9426E8EEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>186050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81B7A2E-32AB-4E44-97D6-1BF83E5A9C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603522</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA54303C-DC86-0E4B-B274-5A1197FE58D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>275710</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755488</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161302</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42474BC0-B9D5-DF42-9963-A33485E42B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>932419</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174761</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA52B47E-8474-964A-BB53-5325C7AEF703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>324556</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>77502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>804334</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85318</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B687552-2789-C247-92DC-3EA6BF3F8F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1040966</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283308</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>117883</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699C6B47-04EF-0547-BB2C-5AA2FE207F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1678,24 +9439,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A3:C6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A3:C6" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A10:C13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A10:C13" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74C46234-1C3A-E34B-91AD-9F2F1C9BDFC9}" name="Table135" displayName="Table135" ref="A24:C27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A24:C27" xr:uid="{C76BCA65-B139-0641-BEEA-F435D8532C09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5F0D5FE9-4E23-6148-8569-DA8C54A3C14F}" name="Factor de Carga (CHAINING)" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{51A706C2-D87C-9F4F-B72F-D80A0E47C45C}" name="Consumo de Datos [kB]" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8512BA59-3CE7-0F45-8B25-CC9BADA201A8}" name="Tiempo de Ejecución [ms]" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADB797FC-E474-A140-9CB3-D37B80490412}" name="Table14" displayName="Table14" ref="A17:C20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A17:C20" xr:uid="{DD9F19F8-1114-0343-9E2E-476E306324CC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{85C067AA-2750-C247-9601-230F271DAB15}" name="Factor de Carga (PROBING)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F07080FB-FF93-1B44-B2C3-CC02B25CE4E5}" name="Consumo de Datos [kB]" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{27D225D6-FC5F-6B40-A53A-F360E7B164D7}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1998,136 +9783,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
+      <c r="B4" s="6">
+        <v>1707549.0519999999</v>
       </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="C4" s="5">
+        <v>33643.796999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
+      <c r="B5" s="6">
+        <v>1707549.0519999999</v>
       </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="C5" s="5">
+        <v>33643.796999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
+      <c r="B6" s="6">
+        <v>1707549.0519999999</v>
       </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="C6" s="5">
+        <v>33451.574999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" s="2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
+      <c r="B11" s="5">
+        <v>1707557.1610000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="C11" s="5">
+        <v>33953.046999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
+      <c r="B12" s="5">
+        <v>1707552.325</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="C12" s="5">
+        <v>34021.879000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
+      <c r="B13" s="5">
+        <v>1707552.325</v>
       </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="C13" s="5">
+        <v>34317.108999999997</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1713347.3489999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>33624.112000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1713347.3489999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>29986.787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1713347.3489999999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>30116.117999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1713354.6610000001</v>
+      </c>
+      <c r="C25" s="7">
+        <v>29763.585999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1713354.5209999999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>30717.005000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1713354.6610000001</v>
+      </c>
+      <c r="C27" s="9">
+        <v>27878.010999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2338,12 +10247,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2354,6 +10257,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2372,23 +10292,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
